--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2418538.966992079</v>
+        <v>2414156.006246175</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9975138.252205912</v>
+        <v>9964927.035287932</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429604.7259431062</v>
+        <v>430763.782371722</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9591273.301777331</v>
+        <v>9591418.341927966</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>316.828455490334</v>
+        <v>128.0041052504326</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>149.8794763036715</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>60.46179076613115</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>218.0731488975171</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>127.7594927339631</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>1.629999403320407</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>74.82587485147387</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1545,7 +1545,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440903</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>167.8037558197034</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>154.2412016770583</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1666,7 +1666,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>2.059946371958306</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440903</v>
@@ -1821,13 +1821,13 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>139.6570579568059</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>197.1254711283183</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>41.12752302841049</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>72.73162759594746</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440903</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U26" t="n">
         <v>250.9088959876463</v>
@@ -2651,7 +2651,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>181.5544711469516</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>207.2285503015219</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U29" t="n">
         <v>250.9088959876463</v>
@@ -2888,7 +2888,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>83.5541093828391</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S31" t="n">
-        <v>181.3384883584589</v>
+        <v>105.3305177187436</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>16.03945994320028</v>
       </c>
       <c r="I34" t="n">
-        <v>16.93201195219318</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U35" t="n">
         <v>250.9088959876463</v>
@@ -3362,7 +3362,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T36" t="n">
         <v>188.3907690366107</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>13.67140925688466</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.1807515910839</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S37" t="n">
-        <v>181.3384883584591</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>224.5751767657213</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3599,7 +3599,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>25.99823028759715</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>7.729505493045152</v>
       </c>
       <c r="H40" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
@@ -3720,13 +3720,13 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3836,7 +3836,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>23.94516103140631</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>77.74535489974534</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4070,10 +4070,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4143,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119562</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>55.52079624060459</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1077.074462393506</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C2" t="n">
-        <v>708.1119454530944</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D2" t="n">
-        <v>708.1119454530944</v>
+        <v>1133.480191223665</v>
       </c>
       <c r="E2" t="n">
-        <v>708.1119454530944</v>
+        <v>747.6919386254203</v>
       </c>
       <c r="F2" t="n">
-        <v>701.166444703891</v>
+        <v>336.7060338358128</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1837.140060718708</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1463.674302457628</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1463.674302457628</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,7 +4418,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632153</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>352.2263397260238</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>205.3363922281134</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2567.064746875</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2312.380258669114</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>2022.963088632153</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.963088632153</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2090.781606227855</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2421.844493571426</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2090.781606227855</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.781606227855</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.781606227855</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.781606227855</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,13 +4646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
         <v>222.942782082032</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>450.9323329800494</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>983.0286321745434</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>614.0661152341316</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>614.0661152341316</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,7 +4822,7 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2133.233562475557</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.767804214477</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1369.628472238665</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4895,31 +4895,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.2978374347314</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>325.2978374347314</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>175.1811980223956</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>175.1811980223956</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>175.1811980223956</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>175.1811980223956</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>175.1811980223956</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>325.2978374347314</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>325.2978374347314</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>325.2978374347314</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>325.2978374347314</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D11" t="n">
         <v>1591.032978284208</v>
@@ -5029,7 +5029,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G11" t="n">
         <v>380.2757138127629</v>
@@ -5062,7 +5062,7 @@
         <v>4151.951912946806</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R11" t="n">
         <v>4692.417407580351</v>
@@ -5077,16 +5077,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I12" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>242.5353624779755</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K12" t="n">
-        <v>242.5353624779755</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L12" t="n">
-        <v>242.5353624779755</v>
+        <v>732.2286627472042</v>
       </c>
       <c r="M12" t="n">
-        <v>834.5537167301031</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N12" t="n">
-        <v>1456.649680129439</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="O12" t="n">
-        <v>2003.526155129633</v>
+        <v>2493.219455398862</v>
       </c>
       <c r="P12" t="n">
-        <v>2423.109673555709</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q12" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R12" t="n">
         <v>2553.812354695766</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>957.5492919979874</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C13" t="n">
-        <v>788.6131090700806</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D13" t="n">
-        <v>638.4964696577448</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E13" t="n">
-        <v>490.5833760753517</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F13" t="n">
-        <v>343.6934285774414</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G13" t="n">
-        <v>176.4792337520202</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H13" t="n">
         <v>176.4792337520202</v>
@@ -5202,49 +5202,49 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117207</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L13" t="n">
-        <v>820.2210160948549</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.146473931021</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.168930946051</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.699365782255</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.41249933569</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.553154294192</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S13" t="n">
-        <v>2192.054411041966</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T13" t="n">
-        <v>1972.375628756348</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="U13" t="n">
-        <v>1683.299415071075</v>
+        <v>2140.336285650421</v>
       </c>
       <c r="V13" t="n">
-        <v>1428.614926865188</v>
+        <v>1885.651797444534</v>
       </c>
       <c r="W13" t="n">
-        <v>1139.197756828227</v>
+        <v>1729.852603831344</v>
       </c>
       <c r="X13" t="n">
-        <v>1139.197756828227</v>
+        <v>1501.863052933327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.197756828227</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
         <v>1591.032978284208</v>
@@ -5281,16 +5281,16 @@
         <v>373.3442236507199</v>
       </c>
       <c r="K14" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L14" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M14" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N14" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O14" t="n">
         <v>3654.445485610258</v>
@@ -5314,16 +5314,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K15" t="n">
-        <v>243.9627910411621</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L15" t="n">
-        <v>734.6951238849133</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M15" t="n">
-        <v>734.6951238849133</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N15" t="n">
-        <v>1356.791087284249</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.667562284444</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>643.4451496746559</v>
+        <v>784.1719286328691</v>
       </c>
       <c r="C16" t="n">
-        <v>474.508966746749</v>
+        <v>615.2357457049623</v>
       </c>
       <c r="D16" t="n">
-        <v>324.3923273344133</v>
+        <v>613.1549917938933</v>
       </c>
       <c r="E16" t="n">
-        <v>176.4792337520202</v>
+        <v>465.2418982115001</v>
       </c>
       <c r="F16" t="n">
-        <v>176.4792337520202</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G16" t="n">
-        <v>176.4792337520202</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H16" t="n">
         <v>176.4792337520202</v>
@@ -5442,46 +5442,46 @@
         <v>432.4591980117246</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948548</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931021</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946051</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782255</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294192</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033122</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747504</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.627968062235</v>
+        <v>1958.704181747504</v>
       </c>
       <c r="V16" t="n">
-        <v>1414.943479856348</v>
+        <v>1704.019693541617</v>
       </c>
       <c r="W16" t="n">
-        <v>1273.875744546443</v>
+        <v>1414.602523504656</v>
       </c>
       <c r="X16" t="n">
-        <v>1045.886193648426</v>
+        <v>1186.612972606639</v>
       </c>
       <c r="Y16" t="n">
-        <v>825.0936145048956</v>
+        <v>965.8203934631089</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C17" t="n">
         <v>1949.298676890959</v>
@@ -5515,28 +5515,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507199</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P17" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q17" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R17" t="n">
         <v>4692.417407580351</v>
@@ -5554,13 +5554,13 @@
         <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3082.265894313994</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C18" t="n">
-        <v>2907.812865032867</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D18" t="n">
-        <v>2758.878455371616</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E18" t="n">
-        <v>2599.64100036616</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F18" t="n">
-        <v>2453.106442393045</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G18" t="n">
-        <v>2317.326192152975</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>2232.453401036192</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>2232.453401036192</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>2232.453401036192</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K18" t="n">
-        <v>2232.453401036192</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>2723.185733879944</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>3315.204088132071</v>
+        <v>1154.278642310989</v>
       </c>
       <c r="N18" t="n">
-        <v>3879.653454361</v>
+        <v>1776.374605710325</v>
       </c>
       <c r="O18" t="n">
-        <v>4426.529929361194</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="P18" t="n">
-        <v>4426.529929361194</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q18" t="n">
-        <v>4657.091203346441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R18" t="n">
-        <v>4692.417407580351</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S18" t="n">
-        <v>4573.805702837709</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T18" t="n">
-        <v>4383.511996740122</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U18" t="n">
-        <v>4155.482495264493</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V18" t="n">
-        <v>3920.33038703275</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W18" t="n">
-        <v>3666.093030304549</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X18" t="n">
-        <v>3458.241530099016</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y18" t="n">
-        <v>3250.481231334062</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.9418468488439</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C19" t="n">
-        <v>699.9418468488439</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D19" t="n">
-        <v>549.8252074365081</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E19" t="n">
-        <v>549.8252074365081</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F19" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G19" t="n">
-        <v>235.7210651131766</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H19" t="n">
         <v>93.84834815160703</v>
@@ -5673,52 +5673,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411572</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117208</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L19" t="n">
-        <v>820.221016094855</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931021</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946051</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782255</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.41249933569</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294192</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2361.553154294192</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T19" t="n">
-        <v>2141.874372008574</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U19" t="n">
-        <v>1852.7981583233</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V19" t="n">
-        <v>1598.113670117413</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W19" t="n">
-        <v>1308.696500080453</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X19" t="n">
-        <v>1080.706949182435</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y19" t="n">
-        <v>881.5903116790836</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="20">
@@ -5770,10 +5770,10 @@
         <v>3603.645964259458</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
@@ -5831,19 +5831,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K21" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L21" t="n">
-        <v>373.2380436180325</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M21" t="n">
-        <v>965.2563978701601</v>
+        <v>1512.132872870354</v>
       </c>
       <c r="N21" t="n">
-        <v>1587.352361269496</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O21" t="n">
         <v>2134.22883626969</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>676.7441797778398</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C22" t="n">
-        <v>507.8079968499329</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D22" t="n">
-        <v>466.2650442959829</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E22" t="n">
-        <v>318.3519507135898</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F22" t="n">
-        <v>318.3519507135898</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G22" t="n">
-        <v>318.3519507135898</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H22" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I22" t="n">
         <v>93.84834815160703</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127619</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160599</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160599</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507189</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384007</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3082.265894313994</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C24" t="n">
-        <v>2907.812865032867</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D24" t="n">
-        <v>2758.878455371616</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E24" t="n">
-        <v>2599.64100036616</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F24" t="n">
-        <v>2453.106442393045</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G24" t="n">
-        <v>2317.326192152975</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>2232.453401036192</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>2232.453401036192</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>2380.101382788038</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K24" t="n">
-        <v>2710.610125351397</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>3201.342458195148</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>3201.342458195148</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N24" t="n">
-        <v>3725.957414154081</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O24" t="n">
-        <v>4272.833889154275</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
-        <v>4692.417407580351</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
-        <v>4692.417407580351</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
-        <v>4692.417407580351</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S24" t="n">
-        <v>4573.805702837709</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T24" t="n">
-        <v>4383.511996740122</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U24" t="n">
-        <v>4155.482495264493</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V24" t="n">
-        <v>3920.33038703275</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W24" t="n">
-        <v>3666.093030304549</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X24" t="n">
-        <v>3458.241530099016</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y24" t="n">
-        <v>3250.481231334062</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>715.8882940911302</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>546.9521111632233</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D25" t="n">
-        <v>396.8354717508876</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E25" t="n">
-        <v>323.3691812499305</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F25" t="n">
-        <v>176.4792337520202</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G25" t="n">
-        <v>176.4792337520202</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H25" t="n">
-        <v>176.4792337520202</v>
+        <v>158.945337194272</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
@@ -6192,7 +6192,7 @@
         <v>897.5367589213699</v>
       </c>
       <c r="Y25" t="n">
-        <v>897.5367589213699</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="26">
@@ -6220,40 +6220,40 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160683</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I26" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K26" t="n">
-        <v>893.7741287891952</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T26" t="n">
         <v>4405.740996026519</v>
@@ -6305,28 +6305,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>107.3505653988713</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K27" t="n">
-        <v>107.3505653988713</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L27" t="n">
-        <v>107.3505653988713</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>699.3689196509997</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N27" t="n">
-        <v>1321.464883050337</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O27" t="n">
-        <v>1868.341358050532</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P27" t="n">
-        <v>2287.924876476608</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>784.2947205517427</v>
+        <v>802.415422049311</v>
       </c>
       <c r="C28" t="n">
-        <v>615.3585376238358</v>
+        <v>633.4792391214041</v>
       </c>
       <c r="D28" t="n">
-        <v>465.2418982115</v>
+        <v>633.4792391214041</v>
       </c>
       <c r="E28" t="n">
-        <v>465.2418982115</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F28" t="n">
-        <v>318.3519507135896</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G28" t="n">
-        <v>318.3519507135896</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520201</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I28" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294199</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S28" t="n">
-        <v>2361.553154294199</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T28" t="n">
-        <v>2141.87437200858</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U28" t="n">
-        <v>1852.798158323307</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V28" t="n">
-        <v>1598.11367011742</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W28" t="n">
-        <v>1414.72531542353</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X28" t="n">
-        <v>1186.735764525512</v>
+        <v>984.0638868795508</v>
       </c>
       <c r="Y28" t="n">
-        <v>965.9431853819824</v>
+        <v>984.0638868795508</v>
       </c>
     </row>
     <row r="29">
@@ -6457,40 +6457,40 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160683</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944179</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M29" t="n">
-        <v>2234.298471234009</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.583449151116</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610256</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3082.265894313994</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C30" t="n">
-        <v>2907.812865032867</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D30" t="n">
-        <v>2758.878455371616</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E30" t="n">
-        <v>2599.64100036616</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F30" t="n">
-        <v>2453.106442393045</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G30" t="n">
-        <v>2317.326192152975</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>2232.453401036192</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>2232.453401036192</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>2380.101382788038</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K30" t="n">
-        <v>2380.101382788038</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L30" t="n">
-        <v>2837.973972535584</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M30" t="n">
-        <v>2837.973972535584</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N30" t="n">
-        <v>3460.069935934921</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O30" t="n">
-        <v>4006.946410935117</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="P30" t="n">
-        <v>4426.529929361193</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q30" t="n">
-        <v>4657.091203346441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R30" t="n">
-        <v>4692.417407580351</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S30" t="n">
-        <v>4573.805702837709</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T30" t="n">
-        <v>4383.511996740122</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U30" t="n">
-        <v>4155.482495264493</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V30" t="n">
-        <v>3920.33038703275</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W30" t="n">
-        <v>3666.093030304549</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X30" t="n">
-        <v>3458.241530099016</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y30" t="n">
-        <v>3250.481231334062</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2758.100623192258</v>
+        <v>571.8714428665047</v>
       </c>
       <c r="C31" t="n">
-        <v>2589.164440264351</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D31" t="n">
-        <v>2589.164440264351</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E31" t="n">
-        <v>2441.251346681958</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F31" t="n">
-        <v>2356.853256396262</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G31" t="n">
-        <v>2356.853256396262</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
-        <v>2356.853256396262</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
-        <v>2356.853256396262</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>2435.835379285816</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K31" t="n">
-        <v>2695.46410625638</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L31" t="n">
-        <v>3083.225924339514</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M31" t="n">
-        <v>3502.455516383974</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N31" t="n">
-        <v>3917.151382175681</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O31" t="n">
-        <v>4284.173839190711</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P31" t="n">
-        <v>4574.704274026916</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>4624.558062538853</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>4441.387872277784</v>
+        <v>2255.15869195203</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.709089992166</v>
+        <v>2035.479909666413</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.632876306893</v>
+        <v>1746.403695981139</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.948388101006</v>
+        <v>1491.719207775252</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.531218064045</v>
+        <v>1202.302037738292</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.541667166028</v>
+        <v>974.3124868402746</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.749088022498</v>
+        <v>753.5199076967444</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G32" t="n">
         <v>380.2757138127629</v>
@@ -6703,7 +6703,7 @@
         <v>373.3442236507205</v>
       </c>
       <c r="K32" t="n">
-        <v>893.7741287891952</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L32" t="n">
         <v>1513.293909294971</v>
@@ -6727,7 +6727,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3082.265894313994</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C33" t="n">
-        <v>2907.812865032867</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D33" t="n">
-        <v>2758.878455371616</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E33" t="n">
-        <v>2599.64100036616</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F33" t="n">
-        <v>2453.106442393045</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G33" t="n">
-        <v>2317.326192152975</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>2232.453401036192</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.492433610715</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.140415362561</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K33" t="n">
-        <v>2711.64915792592</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L33" t="n">
-        <v>3103.861450754742</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M33" t="n">
-        <v>3103.861450754742</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N33" t="n">
-        <v>3725.957414154079</v>
+        <v>2276.85172296203</v>
       </c>
       <c r="O33" t="n">
-        <v>4272.833889154274</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P33" t="n">
-        <v>4692.417407580351</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q33" t="n">
-        <v>4692.417407580351</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R33" t="n">
-        <v>4692.417407580351</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S33" t="n">
-        <v>4573.805702837709</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T33" t="n">
-        <v>4383.511996740122</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U33" t="n">
-        <v>4155.482495264493</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V33" t="n">
-        <v>3920.33038703275</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W33" t="n">
-        <v>3666.093030304549</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X33" t="n">
-        <v>3458.241530099016</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y33" t="n">
-        <v>3250.481231334062</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>723.0852658456201</v>
+        <v>676.7441797778425</v>
       </c>
       <c r="C34" t="n">
-        <v>723.0852658456201</v>
+        <v>507.8079968499356</v>
       </c>
       <c r="D34" t="n">
-        <v>572.9686264332844</v>
+        <v>507.8079968499356</v>
       </c>
       <c r="E34" t="n">
-        <v>425.0555328508913</v>
+        <v>359.8949032675425</v>
       </c>
       <c r="F34" t="n">
-        <v>278.1655853529809</v>
+        <v>359.8949032675425</v>
       </c>
       <c r="G34" t="n">
-        <v>110.9513905275597</v>
+        <v>192.6807084421214</v>
       </c>
       <c r="H34" t="n">
-        <v>110.9513905275597</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I34" t="n">
         <v>93.84834815160703</v>
@@ -6900,10 +6900,10 @@
         <v>1125.52630981939</v>
       </c>
       <c r="X34" t="n">
-        <v>1125.52630981939</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y34" t="n">
-        <v>904.7337306758599</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6925,43 +6925,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127636</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507206</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800308</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.645964259444</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.95191294679</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q35" t="n">
-        <v>4515.534099052795</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
         <v>4606.950144347201</v>
@@ -6970,19 +6970,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3082.265894313995</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>2907.812865032868</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>2758.878455371617</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>2599.641000366161</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>2453.106442393046</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>2317.326192152976</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>2232.453401036193</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.492433610716</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>2233.492433610716</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K36" t="n">
-        <v>2564.001176174073</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L36" t="n">
-        <v>3054.733509017822</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M36" t="n">
-        <v>3103.861450754753</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N36" t="n">
-        <v>3725.957414154087</v>
+        <v>2276.85172296203</v>
       </c>
       <c r="O36" t="n">
-        <v>4272.833889154279</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
-        <v>4692.417407580353</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
-        <v>4692.417407580353</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>4692.417407580353</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>4573.80570283771</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>4383.511996740123</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>4155.482495264494</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>3920.330387032751</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>3666.09303030455</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>3458.241530099017</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>3250.481231334063</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>714.7744972332102</v>
+        <v>785.3178666362254</v>
       </c>
       <c r="C37" t="n">
-        <v>714.7744972332102</v>
+        <v>616.3816837083185</v>
       </c>
       <c r="D37" t="n">
-        <v>564.6578578208745</v>
+        <v>466.2650442959828</v>
       </c>
       <c r="E37" t="n">
-        <v>416.7447642384814</v>
+        <v>318.3519507135897</v>
       </c>
       <c r="F37" t="n">
-        <v>416.7447642384814</v>
+        <v>318.3519507135897</v>
       </c>
       <c r="G37" t="n">
-        <v>249.5305694130602</v>
+        <v>318.3519507135897</v>
       </c>
       <c r="H37" t="n">
-        <v>107.6578524514906</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294188</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033118</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T37" t="n">
-        <v>2178.382964033118</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U37" t="n">
-        <v>1889.306750347845</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="V37" t="n">
-        <v>1634.622262141958</v>
+        <v>1704.019693541624</v>
       </c>
       <c r="W37" t="n">
-        <v>1345.205092104997</v>
+        <v>1414.602523504663</v>
       </c>
       <c r="X37" t="n">
-        <v>1117.21554120698</v>
+        <v>1187.758910609995</v>
       </c>
       <c r="Y37" t="n">
-        <v>896.42296206345</v>
+        <v>966.9663314664651</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
         <v>1591.032978284208</v>
@@ -7162,40 +7162,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160683</v>
       </c>
       <c r="I38" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507206</v>
       </c>
       <c r="K38" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R38" t="n">
         <v>4692.417407580352</v>
@@ -7207,19 +7207,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.84834815160704</v>
       </c>
       <c r="I39" t="n">
-        <v>94.88738072612963</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J39" t="n">
-        <v>242.5353624779756</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K39" t="n">
-        <v>573.0441050413344</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L39" t="n">
-        <v>1063.776437885086</v>
+        <v>373.2380436180293</v>
       </c>
       <c r="M39" t="n">
-        <v>1655.794792137213</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="N39" t="n">
-        <v>1655.794792137213</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O39" t="n">
-        <v>2202.671267137408</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P39" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>977.7697540515045</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C40" t="n">
-        <v>808.8335711235976</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D40" t="n">
-        <v>658.7169317112619</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="E40" t="n">
-        <v>632.4560930369213</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="F40" t="n">
-        <v>485.566145539011</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="G40" t="n">
-        <v>318.3519507135898</v>
+        <v>318.3519507135897</v>
       </c>
       <c r="H40" t="n">
-        <v>176.4792337520202</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S40" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T40" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V40" t="n">
-        <v>1669.627968062235</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W40" t="n">
-        <v>1380.210798025274</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X40" t="n">
-        <v>1380.210798025274</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y40" t="n">
-        <v>1159.418218881744</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284208</v>
@@ -7411,52 +7411,52 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507206</v>
       </c>
       <c r="K41" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.583449151117</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R41" t="n">
         <v>4692.417407580352</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3082.265894313995</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>2907.812865032868</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>2758.878455371617</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>2599.641000366161</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>2453.106442393046</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>2317.326192152976</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>2232.453401036193</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I42" t="n">
-        <v>2232.453401036193</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J42" t="n">
-        <v>2380.101382788039</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K42" t="n">
-        <v>2710.610125351398</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L42" t="n">
-        <v>3201.342458195149</v>
+        <v>373.2380436180293</v>
       </c>
       <c r="M42" t="n">
-        <v>3650.73792575494</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="N42" t="n">
-        <v>4272.833889154276</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O42" t="n">
-        <v>4272.833889154276</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P42" t="n">
-        <v>4692.417407580352</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
-        <v>4692.417407580352</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
-        <v>4692.417407580352</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>4573.80570283771</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>4383.511996740123</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>4155.482495264494</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>3920.330387032751</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>3666.09303030455</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>3458.241530099017</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>3250.481231334063</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2968.987131714326</v>
+        <v>562.9550599891011</v>
       </c>
       <c r="C43" t="n">
-        <v>2968.987131714326</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D43" t="n">
-        <v>2818.87049230199</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E43" t="n">
-        <v>2670.957398719597</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F43" t="n">
-        <v>2524.067451221686</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G43" t="n">
-        <v>2356.853256396265</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H43" t="n">
-        <v>2356.853256396265</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I43" t="n">
-        <v>2356.853256396265</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>2435.835379285819</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K43" t="n">
-        <v>2695.464106256383</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L43" t="n">
-        <v>3083.225924339517</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M43" t="n">
-        <v>3502.455516383976</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N43" t="n">
-        <v>3917.151382175683</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O43" t="n">
-        <v>4284.173839190713</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P43" t="n">
-        <v>4574.704274026917</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q43" t="n">
-        <v>4692.417407580352</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R43" t="n">
-        <v>4624.558062538854</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S43" t="n">
-        <v>4441.387872277784</v>
+        <v>2246.242309074627</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.709089992167</v>
+        <v>2026.563526789009</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.632876306894</v>
+        <v>1737.487313103736</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.948388101007</v>
+        <v>1482.802824897849</v>
       </c>
       <c r="W43" t="n">
-        <v>3599.417726586113</v>
+        <v>1193.385654860888</v>
       </c>
       <c r="X43" t="n">
-        <v>3371.428175688096</v>
+        <v>965.3961039628709</v>
       </c>
       <c r="Y43" t="n">
-        <v>3150.635596544565</v>
+        <v>744.6035248193408</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.807711655511</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715099</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108349</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510105</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.805338720497</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399033</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556115</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148076</v>
+        <v>424.1437450015126</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112157</v>
+        <v>893.7741287891952</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118414</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171645</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798343</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.297413955891</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596214</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.28428657842</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570209</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226638</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956524</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695444</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064409</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>95.61573535637422</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2623778840289</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1871500552495</v>
+        <v>373.2380436180293</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.512756271008</v>
+        <v>373.2380436180293</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.945624417403</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.54358797201</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.453318211297</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.453318211297</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.453318211297</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7858239364002</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8496410084933</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7330015961576</v>
+        <v>176.0428926073602</v>
       </c>
       <c r="E46" t="n">
-        <v>296.8199080137645</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F46" t="n">
-        <v>149.9299605158541</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G46" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074696</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834098</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014445</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683896</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.994768683896</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.994768683896</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.393303706837</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.318077051035</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.633588845148</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.216418808187</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.22686791017</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.43428876664</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>51.31264782909085</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>51.31264782909096</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>51.31264782909204</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>51.31264782908278</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="M29" t="n">
-        <v>51.31264782908272</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>51.31264782908278</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>51.31264782908283</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.31264782911214</v>
+        <v>51.312647829084</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>51.31264782909057</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>51.312647829084</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.31264782909079</v>
+        <v>51.31264782908352</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>51.31264782908289</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>13.53473253875552</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>132.2817966595327</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>146.555526646254</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>146.8659403797851</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I19" t="n">
         <v>81.80457674440903</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>21.45918222377648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>107.4879499898019</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>73.70233505062171</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>17.35855759217067</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S28" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>104.9685271896394</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>18.48110508751526</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>61.86693864009214</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>76.00797063971532</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>124.4145298487536</v>
       </c>
       <c r="I34" t="n">
-        <v>64.87256479221577</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13316748752459</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1.134478623315829</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>120.435732358972</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>157.8125473841218</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>143.3016600672215</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>208.7776434368457</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>65.06136363537355</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>110.0033420516642</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>811667.3700579049</v>
+        <v>811667.3700579051</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>811667.3700579051</v>
+        <v>811667.370057905</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>811667.3700579051</v>
+        <v>811667.370057905</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>811667.3700579049</v>
+        <v>811667.370057905</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>811667.3700579049</v>
+        <v>811667.370057905</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>811667.370057905</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>811416.2074450926</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>605012.2328389189</v>
+        <v>605012.2328389187</v>
       </c>
       <c r="F2" t="n">
         <v>605012.2328389193</v>
       </c>
       <c r="G2" t="n">
-        <v>605012.232838919</v>
+        <v>605012.2328389192</v>
       </c>
       <c r="H2" t="n">
-        <v>605012.2328389187</v>
+        <v>605012.2328389189</v>
       </c>
       <c r="I2" t="n">
-        <v>605012.2328389194</v>
+        <v>605012.2328389192</v>
       </c>
       <c r="J2" t="n">
+        <v>605012.2328389188</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605012.2328389193</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605012.2328389195</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605012.2328389193</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605012.2328389197</v>
+      </c>
+      <c r="O2" t="n">
+        <v>605012.2328389195</v>
+      </c>
+      <c r="P2" t="n">
         <v>605012.2328389196</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605012.2328389197</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605012.2328389197</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605012.2328389194</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605012.2328389192</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605012.2328389192</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925941</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.138088009611238e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901333</v>
+        <v>124307.2113901373</v>
       </c>
       <c r="N3" t="n">
-        <v>2.982225396408466e-09</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,43 +26423,43 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
         <v>5781.971894855114</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855115</v>
+        <v>5781.971894855118</v>
       </c>
       <c r="G4" t="n">
+        <v>5781.971894855169</v>
+      </c>
+      <c r="H4" t="n">
         <v>5781.971894855114</v>
       </c>
-      <c r="H4" t="n">
-        <v>5781.971894855172</v>
-      </c>
       <c r="I4" t="n">
-        <v>5781.971894855131</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="J4" t="n">
-        <v>5781.971894855002</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="K4" t="n">
-        <v>5781.971894855</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="L4" t="n">
-        <v>5781.971894855002</v>
+        <v>5781.971894855003</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.971894855411</v>
+        <v>5781.971894855019</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855071</v>
+        <v>5781.97189485502</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894855113</v>
+        <v>5781.971894855012</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5781.971894855003</v>
       </c>
     </row>
     <row r="5">
@@ -26493,16 +26493,16 @@
         <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
         <v>100930.0394572386</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
         <v>100930.0394572386</v>
@@ -26511,7 +26511,7 @@
         <v>100930.0394572386</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572386</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-258110.1358074729</v>
+        <v>-258110.1358074728</v>
       </c>
       <c r="C6" t="n">
-        <v>331857.7434070717</v>
+        <v>331857.7434070719</v>
       </c>
       <c r="D6" t="n">
-        <v>331857.7434070718</v>
+        <v>331857.7434070716</v>
       </c>
       <c r="E6" t="n">
-        <v>-438209.4439676868</v>
+        <v>-438568.4137863302</v>
       </c>
       <c r="F6" t="n">
-        <v>498300.2214868256</v>
+        <v>497941.2516681825</v>
       </c>
       <c r="G6" t="n">
-        <v>498300.2214868254</v>
+        <v>497941.2516681824</v>
       </c>
       <c r="H6" t="n">
-        <v>498300.221486825</v>
+        <v>497941.2516681821</v>
       </c>
       <c r="I6" t="n">
-        <v>498300.2214868257</v>
+        <v>497941.2516681824</v>
       </c>
       <c r="J6" t="n">
-        <v>321877.002294232</v>
+        <v>321518.0324755891</v>
       </c>
       <c r="K6" t="n">
-        <v>498300.2214868261</v>
+        <v>497941.2516681825</v>
       </c>
       <c r="L6" t="n">
-        <v>498300.2214868261</v>
+        <v>497941.2516681816</v>
       </c>
       <c r="M6" t="n">
-        <v>373993.0100966921</v>
+        <v>373634.0402780453</v>
       </c>
       <c r="N6" t="n">
-        <v>498300.2214868225</v>
+        <v>497941.251668183</v>
       </c>
       <c r="O6" t="n">
-        <v>498300.2214868254</v>
+        <v>497941.2516681828</v>
       </c>
       <c r="P6" t="n">
-        <v>492533.6140882111</v>
+        <v>497941.2516681829</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26761,25 +26761,25 @@
         <v>1358.041048716386</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="L3" t="n">
         <v>1358.041048716387</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716387</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26983,25 +26983,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>1.591615728102624e-12</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
-        <v>-4.566441572596512e-12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.320099833421409e-12</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405327</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>96.95571453046097</v>
+        <v>285.7800647703624</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>17.43032595537946</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>321.4685793061306</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>33.15101861077221</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>158.7635056026279</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>347.6109693140926</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>60.13974694086436</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28274,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-2.676105889115889e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28745,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -30288,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-4.813738204112632e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31837,7 +31837,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>275.9770021735818</v>
@@ -31846,7 +31846,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
         <v>740.1323715504301</v>
@@ -31858,13 +31858,13 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982453</v>
+        <v>195.1793561990821</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.321649748796</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.2575834086216</v>
@@ -32077,16 +32077,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>289.472189367849</v>
+        <v>199.0463877591108</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
         <v>759.7214730927637</v>
@@ -32095,10 +32095,10 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32314,19 +32314,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504301</v>
+        <v>234.5999298820448</v>
       </c>
       <c r="N18" t="n">
-        <v>701.4925870620492</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
         <v>694.9967242426204</v>
@@ -32338,7 +32338,7 @@
         <v>372.8719498286952</v>
       </c>
       <c r="R18" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.2575834086216</v>
@@ -32551,22 +32551,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>420.7661933823242</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504301</v>
+        <v>596.0688496389793</v>
       </c>
       <c r="N21" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>557.7961431982453</v>
@@ -32797,16 +32797,16 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N24" t="n">
-        <v>661.2558090115489</v>
+        <v>487.0792071670522</v>
       </c>
       <c r="O24" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H27" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>140.4762299467316</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927647</v>
+        <v>615.6579511813131</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426213</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>557.796143198246</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>181.3625385436715</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H28" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R28" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T28" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>601.0519451814358</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426213</v>
+        <v>189.4642825742353</v>
       </c>
       <c r="P30" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286956</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R30" t="n">
-        <v>181.3625385436715</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H31" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R31" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T31" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>28.21138103088193</v>
       </c>
       <c r="I33" t="n">
-        <v>100.5719078530532</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>275.9770021735821</v>
@@ -33505,19 +33505,19 @@
         <v>471.688653684823</v>
       </c>
       <c r="L33" t="n">
-        <v>534.7284129403007</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N33" t="n">
         <v>759.7214730927647</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426213</v>
+        <v>422.3544583169052</v>
       </c>
       <c r="P33" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J35" t="n">
-        <v>463.364970687405</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P35" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T35" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I36" t="n">
-        <v>100.5719078530528</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K36" t="n">
-        <v>471.688653684821</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745706</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M36" t="n">
-        <v>191.7582174946759</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927615</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426184</v>
+        <v>422.3544583169052</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982436</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H37" t="n">
-        <v>21.77318271548561</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M37" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R37" t="n">
-        <v>110.1126397860856</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T37" t="n">
-        <v>10.46359496551966</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M38" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I39" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745725</v>
+        <v>271.6268178754055</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P39" t="n">
-        <v>452.9793400652885</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M41" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T41" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U41" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K42" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745725</v>
+        <v>271.6268178754055</v>
       </c>
       <c r="M42" t="n">
-        <v>596.0688496389786</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H43" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T43" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>270.9138770698904</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>407.2177391203967</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34786,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35193,7 +35193,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35430,10 +35430,10 @@
         <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>418.5673812695019</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>149.1393755069151</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
         <v>597.9983376284117</v>
@@ -35506,13 +35506,13 @@
         <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839151</v>
+        <v>61.20494878475183</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.3398756627745</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642018</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
         <v>391.678604124378</v>
@@ -35649,7 +35649,7 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>525.6867728671534</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
         <v>625.777556066439</v>
@@ -35661,7 +35661,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P14" t="n">
         <v>553.8443926134828</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>151.63075039349</v>
+        <v>61.20494878475177</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
         <v>628.3797610094305</v>
@@ -35743,10 +35743,10 @@
         <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,7 +35810,7 @@
         <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.678604124374</v>
       </c>
       <c r="M16" t="n">
         <v>423.4642343883427</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607201</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K17" t="n">
         <v>474.3741250380625</v>
@@ -35907,7 +35907,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284117</v>
+        <v>92.4658959600265</v>
       </c>
       <c r="N18" t="n">
-        <v>570.1508749787159</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
         <v>552.400479798176</v>
@@ -35986,7 +35986,7 @@
         <v>232.8901757426737</v>
       </c>
       <c r="R18" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211065673</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
         <v>262.2512393642057</v>
@@ -36138,13 +36138,13 @@
         <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>605.157040442574</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
         <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>282.21181360245</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>453.9348157169609</v>
       </c>
       <c r="N21" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>423.8217357839151</v>
@@ -36363,7 +36363,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L23" t="n">
-        <v>677.0902038955311</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M23" t="n">
         <v>728.287436302058</v>
@@ -36381,7 +36381,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136759</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N24" t="n">
-        <v>529.9140969282156</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="O24" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K26" t="n">
-        <v>525.686772867146</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N26" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845846</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>13.63860328006488</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094314</v>
+        <v>484.3162390979798</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981769</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839158</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.68303457970759</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L28" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664402</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M29" t="n">
-        <v>779.6000841311419</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N29" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>462.4975654015616</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981769</v>
+        <v>46.86803812979091</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426741</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R30" t="n">
-        <v>35.68303457970759</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L31" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>282.3190661607207</v>
       </c>
       <c r="K32" t="n">
-        <v>525.686772867146</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664402</v>
+        <v>677.090203895523</v>
       </c>
       <c r="M32" t="n">
         <v>728.2874363020592</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.04952785305322</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>149.1393755069154</v>
@@ -37153,19 +37153,19 @@
         <v>333.847214710464</v>
       </c>
       <c r="L33" t="n">
-        <v>396.1740331604265</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N33" t="n">
         <v>628.3797610094314</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981769</v>
+        <v>279.7582138724608</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020552</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N35" t="n">
-        <v>744.7323009263669</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P35" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R35" t="n">
-        <v>178.6700086136952</v>
+        <v>178.6700086136686</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.049527853052794</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K36" t="n">
-        <v>333.847214710462</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946964</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M36" t="n">
-        <v>49.62418357265759</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094282</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981739</v>
+        <v>279.7582138724608</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839134</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L37" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O37" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P37" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P38" t="n">
-        <v>605.1570404425736</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136686</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946983</v>
+        <v>133.0724380955314</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P39" t="n">
-        <v>319.0049326509582</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L40" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O40" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N41" t="n">
-        <v>796.0449487554608</v>
+        <v>796.0449487554545</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P41" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K42" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946983</v>
+        <v>133.0724380955314</v>
       </c>
       <c r="M42" t="n">
-        <v>453.9348157169603</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L43" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O43" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>333.6317139898036</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>133.0724380955314</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>265.0837051983784</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2414156.006246175</v>
+        <v>2415975.277937216</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9964927.035287932</v>
+        <v>9964927.035287924</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.782371722</v>
+        <v>430763.7823717228</v>
       </c>
     </row>
     <row r="9">
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>134.8580423152955</v>
       </c>
       <c r="G2" t="n">
-        <v>128.0041052504326</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>149.8794763036715</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>171.7498680634317</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>60.46179076613115</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>261.6262055753332</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>34.08346683966637</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1466,7 +1466,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>108.8359832566043</v>
       </c>
       <c r="W13" t="n">
-        <v>154.2412016770583</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1663,10 +1663,10 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876461</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2.059946371958306</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>9.43427371450322</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -1821,7 +1821,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127574</v>
       </c>
       <c r="H17" t="n">
         <v>283.5630920045443</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2019,7 +2019,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>64.44601915223836</v>
+        <v>64.44601915223835</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>166.8148433654117</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>64.44601915223836</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>161.2080307927947</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>64.44601915223836</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127578</v>
       </c>
       <c r="H26" t="n">
         <v>283.5630920045443</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T26" t="n">
         <v>199.1970568374742</v>
@@ -2651,7 +2651,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
         <v>181.338488358459</v>
@@ -2772,16 +2772,16 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>171.1626144531352</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>207.2285503015219</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
@@ -2888,7 +2888,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>47.88408137095946</v>
       </c>
       <c r="H31" t="n">
         <v>140.4539897919539</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
-        <v>105.3305177187436</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1854515484204</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3125,7 +3125,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>16.03945994320028</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S34" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9088959876463</v>
+        <v>250.908895987647</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,7 +3362,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223835</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>224.5751767657213</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081973</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3599,7 +3599,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>81.3725990111929</v>
       </c>
       <c r="G40" t="n">
-        <v>7.729505493045152</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S40" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3836,7 +3836,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>23.94516103140631</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S43" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1854515484204</v>
+        <v>86.72290329780397</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
         <v>250.9088959876463</v>
@@ -4073,7 +4073,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>81.37259901119562</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.1854574632515</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
         <v>217.4819944627618</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1860.708406770827</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.745889830415</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="D2" t="n">
-        <v>1133.480191223665</v>
+        <v>743.3408592478529</v>
       </c>
       <c r="E2" t="n">
-        <v>747.6919386254203</v>
+        <v>357.5526066496087</v>
       </c>
       <c r="F2" t="n">
-        <v>336.7060338358128</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4375,7 +4375,7 @@
         <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,16 +4418,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.1394333084169</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>500.1394333084169</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>352.2263397260238</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>205.3363922281134</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084169</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C5" t="n">
-        <v>494.1501011631125</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="D5" t="n">
-        <v>135.884402556362</v>
+        <v>1268.452009733665</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>882.6637571354211</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.6778523458135</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4609,10 +4609,10 @@
         <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="6">
@@ -4646,10 +4646,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598711</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4822,7 +4822,7 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4995,16 +4995,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5032,43 +5032,43 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127631</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P11" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q11" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T11" t="n">
         <v>4405.740996026519</v>
@@ -5114,31 +5114,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J12" t="n">
-        <v>241.4963299034529</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K12" t="n">
-        <v>241.4963299034529</v>
+        <v>274.0404001883699</v>
       </c>
       <c r="L12" t="n">
-        <v>732.2286627472042</v>
+        <v>764.7727330321212</v>
       </c>
       <c r="M12" t="n">
-        <v>1324.247016999332</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="N12" t="n">
-        <v>1946.342980398668</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O12" t="n">
-        <v>2493.219455398862</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1099.422008959557</v>
+        <v>707.7042115721531</v>
       </c>
       <c r="C13" t="n">
-        <v>930.4858260316502</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D13" t="n">
-        <v>780.3691866193144</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E13" t="n">
-        <v>632.4560930369213</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F13" t="n">
-        <v>485.566145539011</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H13" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L13" t="n">
         <v>820.2210160948589</v>
@@ -5226,25 +5226,25 @@
         <v>2429.412499335695</v>
       </c>
       <c r="S13" t="n">
-        <v>2429.412499335695</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T13" t="n">
-        <v>2429.412499335695</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U13" t="n">
-        <v>2140.336285650421</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V13" t="n">
-        <v>1885.651797444534</v>
+        <v>1627.551976480901</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.852603831344</v>
+        <v>1338.13480644394</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.863052933327</v>
+        <v>1110.145255545923</v>
       </c>
       <c r="Y13" t="n">
-        <v>1281.070473789797</v>
+        <v>889.3526764023928</v>
       </c>
     </row>
     <row r="14">
@@ -5266,52 +5266,52 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507199</v>
+        <v>424.1437450015209</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892027</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
         <v>3821.234779402499</v>
@@ -5351,31 +5351,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J15" t="n">
-        <v>241.4963299034529</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K15" t="n">
-        <v>302.0892292003572</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="L15" t="n">
-        <v>792.8215620441084</v>
+        <v>142.6767696327857</v>
       </c>
       <c r="M15" t="n">
-        <v>1384.839916296236</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N15" t="n">
-        <v>2006.935879695572</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.1719286328691</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C16" t="n">
-        <v>615.2357457049623</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D16" t="n">
-        <v>613.1549917938933</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="E16" t="n">
-        <v>465.2418982115001</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="F16" t="n">
-        <v>318.3519507135898</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G16" t="n">
         <v>318.3519507135898</v>
@@ -5433,7 +5433,7 @@
         <v>176.4792337520202</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J16" t="n">
         <v>172.8304710411609</v>
@@ -5442,46 +5442,46 @@
         <v>432.4591980117246</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948548</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931021</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946051</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.699365782255</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.41249933569</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294192</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033122</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747504</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U16" t="n">
-        <v>1958.704181747504</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V16" t="n">
-        <v>1704.019693541617</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W16" t="n">
-        <v>1414.602523504656</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X16" t="n">
-        <v>1186.612972606639</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y16" t="n">
-        <v>965.8203934631089</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C17" t="n">
         <v>1949.298676890959</v>
@@ -5503,55 +5503,55 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J17" t="n">
-        <v>424.14374500152</v>
+        <v>424.1437450015209</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287892018</v>
+        <v>893.7741287892027</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.293909294976</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T17" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W17" t="n">
         <v>3468.466124132384</v>
@@ -5560,7 +5560,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J18" t="n">
-        <v>241.4963299034529</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
         <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.737405310563</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="M18" t="n">
-        <v>1154.278642310989</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="N18" t="n">
-        <v>1776.374605710325</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O18" t="n">
-        <v>2323.25108071052</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P18" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5667,10 +5667,10 @@
         <v>158.945337194272</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J19" t="n">
         <v>172.8304710411609</v>
@@ -5740,46 +5740,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507199</v>
+        <v>424.1437450015209</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892027</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
@@ -5825,13 +5825,13 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J21" t="n">
-        <v>241.4963299034529</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K21" t="n">
         <v>572.0050724668117</v>
@@ -5840,7 +5840,7 @@
         <v>1062.737405310563</v>
       </c>
       <c r="M21" t="n">
-        <v>1512.132872870354</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N21" t="n">
         <v>2134.22883626969</v>
@@ -5889,25 +5889,25 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C22" t="n">
-        <v>326.1595320196932</v>
+        <v>326.5958731643559</v>
       </c>
       <c r="D22" t="n">
-        <v>326.1595320196932</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="E22" t="n">
-        <v>326.1595320196932</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="F22" t="n">
-        <v>326.1595320196932</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G22" t="n">
-        <v>158.945337194272</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J22" t="n">
         <v>172.8304710411609</v>
@@ -5977,19 +5977,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
         <v>842.9746074384018</v>
@@ -6062,31 +6062,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J24" t="n">
-        <v>241.4963299034529</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668117</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L24" t="n">
-        <v>1062.737405310563</v>
+        <v>732.2286627472042</v>
       </c>
       <c r="M24" t="n">
-        <v>1654.75575956269</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N24" t="n">
-        <v>2006.935879695572</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.0957149476001</v>
+        <v>715.8882940911302</v>
       </c>
       <c r="C25" t="n">
-        <v>326.1595320196932</v>
+        <v>553.0518993509336</v>
       </c>
       <c r="D25" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E25" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F25" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G25" t="n">
-        <v>158.945337194272</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H25" t="n">
-        <v>158.945337194272</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J25" t="n">
         <v>172.8304710411609</v>
@@ -6192,7 +6192,7 @@
         <v>897.5367589213699</v>
       </c>
       <c r="Y25" t="n">
-        <v>676.7441797778398</v>
+        <v>897.5367589213699</v>
       </c>
     </row>
     <row r="26">
@@ -6214,46 +6214,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q26" t="n">
-        <v>4515.534099052813</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T26" t="n">
         <v>4405.740996026519</v>
@@ -6299,31 +6299,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J27" t="n">
-        <v>241.4963299034529</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L27" t="n">
         <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>1654.75575956269</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="N27" t="n">
-        <v>2134.22883626969</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O27" t="n">
-        <v>2134.22883626969</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.812354695766</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.415422049311</v>
+        <v>576.8886734028455</v>
       </c>
       <c r="C28" t="n">
-        <v>633.4792391214041</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="D28" t="n">
-        <v>633.4792391214041</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="E28" t="n">
-        <v>485.566145539011</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="F28" t="n">
-        <v>485.566145539011</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G28" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L28" t="n">
         <v>820.2210160948589</v>
@@ -6408,28 +6408,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>1482.802824897847</v>
+        <v>1496.736438311593</v>
       </c>
       <c r="W28" t="n">
-        <v>1193.385654860886</v>
+        <v>1207.319268274633</v>
       </c>
       <c r="X28" t="n">
-        <v>984.0638868795508</v>
+        <v>979.3297173766153</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.0638868795508</v>
+        <v>758.5371382330852</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L29" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M29" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6536,31 +6536,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J30" t="n">
-        <v>241.4963299034529</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K30" t="n">
-        <v>572.0050724668117</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L30" t="n">
-        <v>1062.737405310563</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="M30" t="n">
-        <v>1654.75575956269</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N30" t="n">
-        <v>2276.851722962027</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O30" t="n">
-        <v>2323.25108071052</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.25108071052</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.812354695766</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.8714428665047</v>
+        <v>897.9446874942879</v>
       </c>
       <c r="C31" t="n">
-        <v>402.9352599385978</v>
+        <v>729.008504566381</v>
       </c>
       <c r="D31" t="n">
-        <v>402.9352599385978</v>
+        <v>578.8918651540453</v>
       </c>
       <c r="E31" t="n">
-        <v>402.9352599385978</v>
+        <v>430.9787715716521</v>
       </c>
       <c r="F31" t="n">
-        <v>402.9352599385978</v>
+        <v>284.0888240737418</v>
       </c>
       <c r="G31" t="n">
         <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L31" t="n">
         <v>820.2210160948589</v>
@@ -6648,25 +6648,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2255.15869195203</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.479909666413</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.403695981139</v>
+        <v>2072.476940608923</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.719207775252</v>
+        <v>1817.792452403036</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.302037738292</v>
+        <v>1528.375282366075</v>
       </c>
       <c r="X31" t="n">
-        <v>974.3124868402746</v>
+        <v>1300.385731468058</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.5199076967444</v>
+        <v>1079.593152324528</v>
       </c>
     </row>
     <row r="32">
@@ -6688,46 +6688,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I32" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384032</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L32" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R32" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6779,19 +6779,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>241.4963299034533</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K33" t="n">
-        <v>572.0050724668126</v>
+        <v>302.0892292003568</v>
       </c>
       <c r="L33" t="n">
-        <v>1062.737405310565</v>
+        <v>792.8215620441082</v>
       </c>
       <c r="M33" t="n">
-        <v>1654.755759562693</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N33" t="n">
-        <v>2276.85172296203</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O33" t="n">
         <v>2553.812354695766</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>676.7441797778425</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C34" t="n">
-        <v>507.8079968499356</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D34" t="n">
-        <v>507.8079968499356</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E34" t="n">
-        <v>359.8949032675425</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F34" t="n">
-        <v>359.8949032675425</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G34" t="n">
-        <v>192.6807084421214</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H34" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I34" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R34" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S34" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T34" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U34" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V34" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W34" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X34" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y34" t="n">
-        <v>676.7441797778425</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6937,28 +6937,28 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507206</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9746074384032</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944179</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883217</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q35" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R35" t="n">
         <v>4692.417407580352</v>
@@ -6970,19 +6970,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -7016,19 +7016,19 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>241.4963299034533</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668126</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L36" t="n">
-        <v>1062.737405310565</v>
+        <v>792.8215620441082</v>
       </c>
       <c r="M36" t="n">
-        <v>1654.755759562693</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N36" t="n">
-        <v>2276.85172296203</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O36" t="n">
         <v>2553.812354695766</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>785.3178666362254</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C37" t="n">
-        <v>616.3816837083185</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D37" t="n">
-        <v>466.2650442959828</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E37" t="n">
-        <v>318.3519507135897</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F37" t="n">
-        <v>318.3519507135897</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G37" t="n">
-        <v>318.3519507135897</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H37" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I37" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411611</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1958.704181747511</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1704.019693541624</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1414.602523504663</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>1187.758910609995</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y37" t="n">
-        <v>966.9663314664651</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
         <v>1591.032978284208</v>
@@ -7162,40 +7162,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127627</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160683</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I38" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507206</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9746074384032</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.645964259464</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P38" t="n">
-        <v>4151.951912946813</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q38" t="n">
-        <v>4515.53409905282</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R38" t="n">
         <v>4692.417407580352</v>
@@ -7207,19 +7207,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J39" t="n">
-        <v>241.4963299034533</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K39" t="n">
-        <v>241.4963299034533</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L39" t="n">
-        <v>373.2380436180293</v>
+        <v>792.8215620441082</v>
       </c>
       <c r="M39" t="n">
-        <v>965.2563978701578</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N39" t="n">
-        <v>1587.352361269495</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O39" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P39" t="n">
         <v>2553.812354695766</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.0957149476028</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>326.1595320196959</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D40" t="n">
-        <v>326.1595320196959</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E40" t="n">
-        <v>326.1595320196959</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="F40" t="n">
-        <v>326.1595320196959</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G40" t="n">
-        <v>318.3519507135897</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H40" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411611</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S40" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T40" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y40" t="n">
-        <v>676.7441797778425</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G41" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I41" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507206</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384032</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.583449151117</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610257</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R41" t="n">
         <v>4692.417407580352</v>
@@ -7490,22 +7490,22 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J42" t="n">
-        <v>241.4963299034533</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K42" t="n">
-        <v>241.4963299034533</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L42" t="n">
-        <v>373.2380436180293</v>
+        <v>792.8215620441082</v>
       </c>
       <c r="M42" t="n">
-        <v>965.2563978701578</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N42" t="n">
-        <v>1587.352361269495</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O42" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P42" t="n">
         <v>2553.812354695766</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.9550599891011</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7680286442462</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6513892319105</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7382956495174</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F43" t="n">
-        <v>93.84834815160704</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160704</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I43" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411611</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2246.242309074627</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T43" t="n">
-        <v>2026.563526789009</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="U43" t="n">
-        <v>1737.487313103736</v>
+        <v>2273.954262074192</v>
       </c>
       <c r="V43" t="n">
-        <v>1482.802824897849</v>
+        <v>2019.269773868305</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.385654860888</v>
+        <v>1729.852603831344</v>
       </c>
       <c r="X43" t="n">
-        <v>965.3961039628709</v>
+        <v>1501.863052933327</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.6035248193408</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I44" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>424.1437450015126</v>
+        <v>424.1437450015196</v>
       </c>
       <c r="K44" t="n">
-        <v>893.7741287891952</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L44" t="n">
-        <v>1513.293909294971</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M44" t="n">
-        <v>2234.298471234009</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N44" t="n">
-        <v>2971.583449151116</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610256</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
         <v>4692.417407580351</v>
@@ -7727,22 +7727,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>241.4963299034533</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K45" t="n">
-        <v>373.2380436180293</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L45" t="n">
-        <v>373.2380436180293</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M45" t="n">
-        <v>965.2563978701578</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N45" t="n">
-        <v>1587.352361269495</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O45" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P45" t="n">
         <v>2553.812354695766</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>495.0957149476028</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C46" t="n">
-        <v>326.1595320196959</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D46" t="n">
-        <v>176.0428926073602</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="E46" t="n">
-        <v>93.84834815160703</v>
+        <v>197.0659819528712</v>
       </c>
       <c r="F46" t="n">
         <v>93.84834815160703</v>
@@ -7806,52 +7806,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>676.7441797778425</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8470,10 +8470,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714822</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>51.31264782909057</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>51.31264782909113</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.31264782909091</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.31264782909091</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>51.31264782908283</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>51.3126478290913</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.312647829084</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.312647829084</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.31264782908352</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>51.31264782908289</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>143.3016600672237</v>
       </c>
       <c r="W13" t="n">
-        <v>132.2817966595327</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>146.555526646254</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>135.986774308428</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>76.00797063971555</v>
+        <v>76.00797063971557</v>
       </c>
       <c r="I19" t="n">
         <v>81.80457674440903</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.4319777332161152</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>76.00797063971555</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>6.038790305833174</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>17.35855759217067</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>80.97502887069277</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>18.48110508751526</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>117.6579715062075</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>76.00797063971532</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>124.4145298487536</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>76.00797063971557</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.134478623315829</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>64.04844901173834</v>
       </c>
       <c r="G40" t="n">
-        <v>157.8125473841218</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>143.3016600672215</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>199.4625482506165</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>65.06136363537355</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>43.23559055967972</v>
       </c>
       <c r="G46" t="n">
         <v>165.5420528771669</v>
@@ -26043,7 +26043,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>811667.3700579051</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>811667.370057905</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>811667.370057905</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>811667.370057905</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>811667.3700579051</v>
+        <v>811667.370057905</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>811667.370057905</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>811667.3700579049</v>
+        <v>811667.370057905</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>605012.2328389187</v>
+        <v>605012.2328389189</v>
       </c>
       <c r="F2" t="n">
         <v>605012.2328389193</v>
       </c>
       <c r="G2" t="n">
+        <v>605012.2328389194</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605012.2328389194</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605012.2328389193</v>
+      </c>
+      <c r="J2" t="n">
         <v>605012.2328389192</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605012.2328389189</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605012.2328389192</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605012.2328389188</v>
       </c>
       <c r="K2" t="n">
         <v>605012.2328389193</v>
       </c>
       <c r="L2" t="n">
-        <v>605012.2328389195</v>
+        <v>605012.2328389189</v>
       </c>
       <c r="M2" t="n">
-        <v>605012.2328389193</v>
+        <v>605012.2328389192</v>
       </c>
       <c r="N2" t="n">
-        <v>605012.2328389197</v>
+        <v>605012.2328389192</v>
       </c>
       <c r="O2" t="n">
-        <v>605012.2328389195</v>
+        <v>605012.2328389189</v>
       </c>
       <c r="P2" t="n">
-        <v>605012.2328389196</v>
+        <v>605012.2328389194</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545121</v>
+        <v>936509.6654545123</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.138088009611238e-09</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>124307.2113901373</v>
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855114</v>
+        <v>5781.971894855111</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855118</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855169</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855114</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="I4" t="n">
         <v>5781.971894855127</v>
       </c>
       <c r="J4" t="n">
-        <v>5781.971894855114</v>
+        <v>5781.971894855101</v>
       </c>
       <c r="K4" t="n">
-        <v>5781.971894855114</v>
+        <v>5781.971894855102</v>
       </c>
       <c r="L4" t="n">
-        <v>5781.971894855003</v>
+        <v>5781.971894855089</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.971894855019</v>
+        <v>5781.971894855121</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.97189485502</v>
+        <v>5781.971894855102</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894855012</v>
+        <v>5781.971894855101</v>
       </c>
       <c r="P4" t="n">
-        <v>5781.971894855003</v>
+        <v>5781.971894855109</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="I5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="K5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="L5" t="n">
         <v>100930.0394572385</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100930.0394572385</v>
-      </c>
-      <c r="G5" t="n">
-        <v>100930.0394572385</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100930.0394572385</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100930.0394572385</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100930.0394572385</v>
-      </c>
-      <c r="K5" t="n">
-        <v>100930.0394572385</v>
-      </c>
-      <c r="L5" t="n">
-        <v>100930.0394572386</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572386</v>
@@ -26511,7 +26511,7 @@
         <v>100930.0394572386</v>
       </c>
       <c r="P5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-258110.1358074728</v>
       </c>
       <c r="C6" t="n">
-        <v>331857.7434070719</v>
+        <v>331857.7434070716</v>
       </c>
       <c r="D6" t="n">
-        <v>331857.7434070716</v>
+        <v>331857.7434070715</v>
       </c>
       <c r="E6" t="n">
-        <v>-438568.4137863302</v>
+        <v>-438245.3409495514</v>
       </c>
       <c r="F6" t="n">
-        <v>497941.2516681825</v>
+        <v>498264.3245049615</v>
       </c>
       <c r="G6" t="n">
-        <v>497941.2516681824</v>
+        <v>498264.3245049614</v>
       </c>
       <c r="H6" t="n">
-        <v>497941.2516681821</v>
+        <v>498264.3245049614</v>
       </c>
       <c r="I6" t="n">
-        <v>497941.2516681824</v>
+        <v>498264.3245049613</v>
       </c>
       <c r="J6" t="n">
-        <v>321518.0324755891</v>
+        <v>321841.1053123681</v>
       </c>
       <c r="K6" t="n">
-        <v>497941.2516681825</v>
+        <v>498264.3245049613</v>
       </c>
       <c r="L6" t="n">
-        <v>497941.2516681816</v>
+        <v>498264.324504961</v>
       </c>
       <c r="M6" t="n">
-        <v>373634.0402780453</v>
+        <v>373957.1131148238</v>
       </c>
       <c r="N6" t="n">
-        <v>497941.251668183</v>
+        <v>498264.3245049611</v>
       </c>
       <c r="O6" t="n">
-        <v>497941.2516681828</v>
+        <v>498264.3245049609</v>
       </c>
       <c r="P6" t="n">
-        <v>497941.2516681829</v>
+        <v>498264.3245049614</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26767,19 +26767,19 @@
         <v>1358.041048716386</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992989</v>
+        <v>980.2973844992991</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,13 +26983,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405324</v>
+        <v>498.8170791405327</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>272.0180034264159</v>
       </c>
       <c r="G2" t="n">
-        <v>285.7800647703624</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>17.43032595537946</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>53.95978732560545</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>321.4685793061306</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>152.1579644454617</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>252.4395314969246</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>28.9878097027507</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31834,7 +31834,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,34 +31843,34 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>170.7142372419518</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>195.1793561990821</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31916,7 +31916,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31925,16 +31925,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31946,7 +31946,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -32077,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>199.0463877591108</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>187.8760176396507</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504301</v>
@@ -32095,10 +32095,10 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32320,10 +32320,10 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745724</v>
+        <v>535.7779407933574</v>
       </c>
       <c r="M18" t="n">
-        <v>234.5999298820448</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>759.7214730927637</v>
@@ -32332,10 +32332,10 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32560,10 +32560,10 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>596.0688496389793</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>615.6579511813131</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -32791,7 +32791,7 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>634.2436048745724</v>
@@ -32800,16 +32800,16 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N24" t="n">
-        <v>487.0792071670522</v>
+        <v>164.214510350927</v>
       </c>
       <c r="O24" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K26" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S26" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U26" t="n">
         <v>0.436756920190194</v>
@@ -33019,7 +33019,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H27" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33031,31 +33031,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504301</v>
+        <v>439.1579551075595</v>
       </c>
       <c r="N27" t="n">
-        <v>615.6579511813131</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U27" t="n">
         <v>0.1921756201013754</v>
@@ -33101,7 +33101,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J28" t="n">
         <v>173.1391022273333</v>
@@ -33110,16 +33110,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P28" t="n">
         <v>296.1865264282424</v>
@@ -33131,7 +33131,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T28" t="n">
         <v>10.46359496551969</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K29" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S29" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U29" t="n">
         <v>0.436756920190194</v>
@@ -33256,7 +33256,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,34 +33265,34 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504301</v>
+        <v>144.6254088085925</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O30" t="n">
-        <v>189.4642825742353</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U30" t="n">
         <v>0.1921756201013754</v>
@@ -33338,7 +33338,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J31" t="n">
         <v>173.1391022273333</v>
@@ -33347,16 +33347,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P31" t="n">
         <v>296.1865264282424</v>
@@ -33368,7 +33368,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T31" t="n">
         <v>10.46359496551969</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>471.688653684823</v>
+        <v>199.0463877591104</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O33" t="n">
-        <v>422.3544583169052</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H34" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R34" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T34" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745732</v>
+        <v>361.6013389488604</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>422.3544583169052</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H37" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R37" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T37" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>271.6268178754055</v>
+        <v>361.6013389488604</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P39" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H40" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R40" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T40" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>271.6268178754055</v>
+        <v>361.6013389488604</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P42" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T43" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P44" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>270.9138770698904</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504309</v>
+        <v>467.4901056247181</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M46" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P46" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35190,10 +35190,10 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,10 +35266,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>605.1570404425736</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>32.87279826759277</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>61.20494878475183</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35576,19 +35576,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139898119</v>
       </c>
       <c r="K14" t="n">
         <v>474.3741250380625</v>
@@ -35661,7 +35661,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>741.0722806160995</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
         <v>553.8443926134828</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20494878475177</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>49.32163785977647</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284117</v>
@@ -35743,10 +35743,10 @@
         <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,7 +35810,7 @@
         <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124374</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
         <v>423.4642343883427</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>333.631713989811</v>
+        <v>333.6317139898119</v>
       </c>
       <c r="K17" t="n">
         <v>474.3741250380625</v>
@@ -35968,10 +35968,10 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946982</v>
+        <v>397.2235610134832</v>
       </c>
       <c r="M18" t="n">
-        <v>92.4658959600265</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>628.3797610094305</v>
@@ -35980,10 +35980,10 @@
         <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139898119</v>
       </c>
       <c r="K20" t="n">
         <v>474.3741250380625</v>
@@ -36144,7 +36144,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,10 +36208,10 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>453.9348157169609</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>484.3162390979798</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>495.6892250946982</v>
@@ -36448,16 +36448,16 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N24" t="n">
-        <v>355.7374950837189</v>
+        <v>32.87279826759372</v>
       </c>
       <c r="O24" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L26" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M26" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>178.670008613675</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284117</v>
+        <v>297.0239211855412</v>
       </c>
       <c r="N27" t="n">
-        <v>484.3162390979798</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K28" t="n">
         <v>262.2512393642057</v>
@@ -36761,19 +36761,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N28" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L29" t="n">
-        <v>677.09020389553</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M29" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284117</v>
+        <v>2.491374886574134</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O30" t="n">
-        <v>46.86803812979091</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K31" t="n">
         <v>262.2512393642057</v>
@@ -36998,19 +36998,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N31" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L32" t="n">
-        <v>677.090203895523</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N32" t="n">
-        <v>744.732300926371</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134837</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>333.847214710464</v>
+        <v>61.20494878475137</v>
       </c>
       <c r="L33" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O33" t="n">
-        <v>279.7582138724608</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380633</v>
+        <v>525.6867728671539</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N35" t="n">
-        <v>744.732300926371</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P35" t="n">
-        <v>553.8443926134837</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R35" t="n">
-        <v>178.6700086136686</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>495.689225094699</v>
+        <v>223.0469591689862</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>279.7582138724608</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N38" t="n">
-        <v>744.732300926371</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134837</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R38" t="n">
-        <v>178.6700086136686</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>133.0724380955314</v>
+        <v>223.0469591689862</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981769</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L40" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
-        <v>796.0449487554545</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134837</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>133.0724380955314</v>
+        <v>223.0469591689862</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981769</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L43" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>333.6317139898036</v>
+        <v>333.6317139898107</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N44" t="n">
-        <v>744.732300926371</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O44" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P44" t="n">
-        <v>553.8443926134837</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>133.0724380955314</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284126</v>
+        <v>325.3560717026998</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>552.4004797981769</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K46" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N46" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P46" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
